--- a/VR Karting/Results/5887.xlsx
+++ b/VR Karting/Results/5887.xlsx
@@ -3,24 +3,26 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14560" yWindow="2160" windowWidth="16860" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2320" yWindow="2340" windowWidth="16860" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="PRE" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Mini 1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Word Accuracies" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Contrast Accuracies" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Session 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Mini 1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Mini 2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Word Accuracies" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Contrast Accuracies" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="맑은 고딕"/>
       <charset val="129"/>
@@ -37,6 +39,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -48,12 +57,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -68,11 +92,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1929,7 +1956,7 @@
   </sheetPr>
   <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
@@ -4101,6 +4128,1481 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.147354</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>4.566498</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.651978</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2.158142</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.305794</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3.773254</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2.387993</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.423752</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1.75029</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.450027</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.608429</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5980072</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.144226</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.7684784</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.7745667000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2.043579</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1.073517</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.8592377</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.9470978</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.445251</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.6194</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.177155</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.952988</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.550415</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2.935547</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.07486</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.263733</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2.009033</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.5172118999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.993591</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.199249</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.8813782</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.1861267</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2.0784</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.7998961999999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>3.683258</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.003265</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.8284302</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.315094</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.637146</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.9676207999999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.991699</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.8461303999999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1.296478</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.614044</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.269928</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>5.76767</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.402832</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1.386902</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2.579285</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.4071045</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.156097</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.087372</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.6048889</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.7262573</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1.024872</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.164762</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.654661</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.564907</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.9190407</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.654152</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.53738</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.655022</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.740776</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>3.759949</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.310204</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.967606</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.824753</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>4.810623</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.782394</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>2.696838</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2.820313</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.463608</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.004196</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2.275604</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.8375397</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.512802</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>2.89447</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>3.835709</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.336823</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>2.275513</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.627686</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2.039368</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2.245331</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>2.21286</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.9229126</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.161469</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.8157959</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.319153</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.166748</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.4133606</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.81427</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.876953</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>2.020416</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1.368042</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>2.25766</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>2.835663</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1.093414</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.744232</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.598328</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>2.065125</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.736359</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>3.494049</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.356018</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>2.605194</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.8703918</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.208588</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.215149</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.567352</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>2.976593</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.7598572</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.160706</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4199,13 +5701,112 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4214,14 +5815,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>WORD</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
         </is>
       </c>
     </row>
@@ -4234,6 +5840,9 @@
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -4244,6 +5853,9 @@
       <c r="B3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -4254,6 +5866,9 @@
       <c r="B4" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -4264,6 +5879,9 @@
       <c r="B5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -4274,6 +5892,9 @@
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -4284,6 +5905,9 @@
       <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -4294,6 +5918,9 @@
       <c r="B8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -4304,6 +5931,9 @@
       <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -4314,6 +5944,9 @@
       <c r="B10" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -4324,6 +5957,9 @@
       <c r="B11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C11" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -4334,6 +5970,9 @@
       <c r="B12" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -4344,6 +5983,9 @@
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -4354,6 +5996,9 @@
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -4364,6 +6009,9 @@
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -4374,6 +6022,9 @@
       <c r="B16" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -4384,6 +6035,9 @@
       <c r="B17" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="C17" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -4394,6 +6048,9 @@
       <c r="B18" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C18" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -4404,6 +6061,9 @@
       <c r="B19" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C19" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -4414,6 +6074,9 @@
       <c r="B20" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="C20" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -4424,6 +6087,9 @@
       <c r="B21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -4434,6 +6100,9 @@
       <c r="B22" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C22" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -4444,6 +6113,9 @@
       <c r="B23" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -4454,6 +6126,9 @@
       <c r="B24" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -4464,6 +6139,9 @@
       <c r="B25" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -4474,6 +6152,9 @@
       <c r="B26" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -4484,6 +6165,9 @@
       <c r="B27" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -4494,6 +6178,9 @@
       <c r="B28" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="C28" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -4504,6 +6191,9 @@
       <c r="B29" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -4514,6 +6204,9 @@
       <c r="B30" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -4524,6 +6217,9 @@
       <c r="B31" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C31" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -4534,6 +6230,9 @@
       <c r="B32" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -4544,6 +6243,9 @@
       <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C33" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -4554,6 +6256,9 @@
       <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -4564,6 +6269,9 @@
       <c r="B35" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -4574,6 +6282,9 @@
       <c r="B36" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -4584,6 +6295,9 @@
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -4594,6 +6308,9 @@
       <c r="B38" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C38" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -4604,6 +6321,9 @@
       <c r="B39" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -4614,6 +6334,9 @@
       <c r="B40" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="C40" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -4624,6 +6347,9 @@
       <c r="B41" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -4634,6 +6360,9 @@
       <c r="B42" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -4644,6 +6373,9 @@
       <c r="B43" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -4654,6 +6386,9 @@
       <c r="B44" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="C44" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -4664,6 +6399,9 @@
       <c r="B45" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -4674,6 +6412,9 @@
       <c r="B46" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C46" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -4684,6 +6425,9 @@
       <c r="B47" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -4694,6 +6438,9 @@
       <c r="B48" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C48" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -4704,6 +6451,9 @@
       <c r="B49" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -4714,6 +6464,9 @@
       <c r="B50" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -4724,6 +6477,9 @@
       <c r="B51" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C51" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -4734,6 +6490,9 @@
       <c r="B52" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -4744,6 +6503,9 @@
       <c r="B53" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -4754,6 +6516,9 @@
       <c r="B54" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -4764,6 +6529,9 @@
       <c r="B55" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -4774,6 +6542,9 @@
       <c r="B56" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -4783,6 +6554,9 @@
       </c>
       <c r="B57" s="0" t="n">
         <v>0.5</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4790,13 +6564,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4805,14 +6579,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>CONTRAST</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
         </is>
       </c>
     </row>
@@ -4825,6 +6604,9 @@
       <c r="B2" t="n">
         <v>0.8928571428571429</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4835,6 +6617,9 @@
       <c r="B3" t="n">
         <v>0.8214285714285714</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.8928571428571429</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4845,6 +6630,9 @@
       <c r="B4" t="n">
         <v>0.6785714285714286</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4854,6 +6642,9 @@
       </c>
       <c r="B5" t="n">
         <v>0.7142857142857143</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/VR Karting/Results/5887.xlsx
+++ b/VR Karting/Results/5887.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2320" yWindow="2340" windowWidth="16860" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2320" yWindow="2340" windowWidth="16860" windowHeight="17440" tabRatio="600" firstSheet="3" activeTab="10" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,8 +11,14 @@
     <sheet name="Session 2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Mini 1" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Mini 2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Word Accuracies" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Contrast Accuracies" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Session 3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Mini 3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Session 4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="MID" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Session 5" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Mini 5" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Word Accuracies" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Contrast Accuracies" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1948,6 +1954,3002 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2.357031</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.535606</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.122978</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.451134</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2.823711</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.210011</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3.041458</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3.247704</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1.907234</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.367821</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>6.886826</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.479652</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2.905296</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.518242</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.319366</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.596649</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.9943695</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.728958</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.439621</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.622177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.351471</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2.39357</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.560272</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.599716</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.912415</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>2.916565</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.191223</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>4.139084</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2.509338</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.590988</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.053925</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>7.628876</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.882996</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1.033264</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>17.96658</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>3.371857</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.490417</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>5.706757</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.8785706</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.069244</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>2.223053</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.664185</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2.280792</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1.376251</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.763855</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.070526</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.077271</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2.452148</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>3.64093</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.503601</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.959167</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.736969</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.136169</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.124725</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.55069</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.1571045</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.216455</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.669752</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>2.453167</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>3.835884</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.399147</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.9179878</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.57164</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>2.215775</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.334091</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.380371</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.291489</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.4478989</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.343842</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.397614</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.554375</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2.321793</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.8858643</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2.408234</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>2.456009</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.354523</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.8530121000000001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.374374</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.80658</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>2.907593</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.007462</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.309723</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>3.570419</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.88475</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>3.267319</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.2715607</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>2.357529</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.711197</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.598846</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.337067</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>3.277557</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>2.146301</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.263947</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.6654358</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.9070129</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.107574</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>2.176971</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1.290558</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.705963</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>5.393982</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.9547424</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.368317</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.916748</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.474884</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1.58136</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1.66214</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.996094</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>2.292816</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>5.750732</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.616241</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.19931</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1.138336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>CONTRAST</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ɛ vs. æ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ɪ vs. iː</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ʊ vs. uː</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ʌ vs. ɑ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -5709,7 +8711,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -5806,761 +8808,1472 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.630882</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>5.279915</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>1.682961</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.5</v>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
+        <v>1.537582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
+        <v>1.575531</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.5</v>
+        <v>1.429527</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1</v>
+        <v>1.359756</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1</v>
+        <v>2.077545</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1</v>
+        <v>2.514526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1</v>
+        <v>1.33139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.5</v>
+        <v>1.666153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.5</v>
+        <v>2.377029</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
+        <v>2.224823</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1</v>
+        <v>2.087662</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1</v>
+        <v>1.634903</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="n">
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
+        <v>0.8784637</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.5</v>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.5</v>
+        <v>2.246277</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.5</v>
+        <v>1.123352</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.5</v>
+        <v>1.116364</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0.5</v>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.5</v>
+        <v>1.073273</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1</v>
+        <v>1.156235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>1</v>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.5</v>
+        <v>0.6324921</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>1</v>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1</v>
+        <v>1.252686</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="n">
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>1</v>
+        <v>0.4714355</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="n">
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1</v>
+        <v>1.567047</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="n">
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1</v>
+        <v>1.569611</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="n">
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>1</v>
+        <v>4.705139</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0.5</v>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.5</v>
+        <v>0.9682007</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="n">
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>1</v>
+        <v>1.443542</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0.5</v>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0</v>
+        <v>1.696167</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.5</v>
+        <v>1.212799</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="n">
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.5</v>
+        <v>1.981354</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="n">
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.5</v>
+        <v>1.417389</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>1</v>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0</v>
+        <v>1.187073</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0.5</v>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>1</v>
+        <v>1.099976</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="n">
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>1</v>
+        <v>3.997192</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>1</v>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>1</v>
+        <v>1.013702</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>1</v>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>1</v>
+        <v>1.557037</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="n">
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>1</v>
+        <v>2.143982</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0.5</v>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.5</v>
+        <v>0.8892212</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0.5</v>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0</v>
+        <v>1.170746</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0.5</v>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>1</v>
+        <v>0.8656616</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="n">
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>1</v>
+        <v>2.665131</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0.5</v>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>1</v>
+        <v>2.339813</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0</v>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>1</v>
+        <v>0.9775085</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>0</v>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.5</v>
+        <v>1.689667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="n">
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1</v>
+        <v>1.312683</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="n">
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.5</v>
+        <v>3.743408</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0.5</v>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>1</v>
+        <v>2.407623</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="n">
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>1</v>
+        <v>0.9772034000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="n">
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>1</v>
+        <v>1.051086</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="n">
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.5</v>
+        <v>2.406494</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>0.5</v>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>1</v>
+        <v>2.787445</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="n">
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>1</v>
+        <v>2.042694</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="n">
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>1</v>
+        <v>0.7626953</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="n">
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>1</v>
+        <v>0.8724976</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.632029</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2.60392</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>2.425957</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.93087</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.6846466</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.8610725</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2.330246</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.477417</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.380653</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.446808</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.331093</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.298843</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.527771</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.976875</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.709618</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>3.302032</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>4.237198</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.325958</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.657806</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>2.743988</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>3.404068</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.904526</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.565536</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>3.511795</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.267273</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>2.502731</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.285263</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.713379</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.802017</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.8084869</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>2.611923</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
           <t>would</t>
         </is>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>1</v>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.518753</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.065674</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>2.165894</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.316711</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>2.096466</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.731964</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.26828</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>4.614349</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.8324585</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>3.182098</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>1.968781</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.387207</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.884491</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1.769745</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.6375122</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.360016</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.606476</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1.125031</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1.047668</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>2.295746</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.143768</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.838409</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>4.119873</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.765533</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>4.83847</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6570,84 +10283,3749 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>CONTRAST</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ɛ vs. æ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7857142857142857</v>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ɪ vs. iː</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8928571428571429</v>
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ʊ vs. uː</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7142857142857143</v>
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ʌ vs. ɑ</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.75</v>
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.585289</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.537811</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.298111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2.980759</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.7108</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>4.182175</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>27.22087</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.086441</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1.929001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.142868</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.034225</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.202896</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.512619</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.8322449</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.138535</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.78302</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.4771729</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.242798</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.7613220000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.210968</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.8577881000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.8010559</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2.388306</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2.743927</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.423523</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.4778137</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.6920471</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.122833</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.075348</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.8935852</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.934967</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.7878723</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2.234497</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.891449</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.2351685</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2.559418</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.99823</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.7130127000000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.065155</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.25528</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.097198</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.3588257</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.6792603</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>2.365173</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.052368</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.526154</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.39566</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2.255035</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1.856781</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.377533</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.871368</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.307373</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.598694</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.797791</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>3.905396</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.2960205</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.265247</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2.818192</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.6665993</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.616497</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.6646576</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>3.814381</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2.373215</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.883377</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.17868</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.031456</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.9288559</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>2.121307</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.89312</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.5732574</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>3.107498</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>4.895905</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>4.249893</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.4445038</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>3.146332</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>2.772629</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>3.260086</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>2.098877</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.198593</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.160126</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>2.717346</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.799103</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2.692184</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2.08725</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.279465</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>2.188873</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.668076</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.068237</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.335266</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.767731</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.8791504</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>3.755707</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.199249</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>2.493225</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>3.656616</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.286285</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>2.89502</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.6665344</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.279938</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.222412</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.4827271</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.738861</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.9067688</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.041992</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.8729553</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.6834106</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.329193</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.114624</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.224152</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.750275</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.7259827</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.8358765</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C144"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VR Karting/Results/5887.xlsx
+++ b/VR Karting/Results/5887.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365kaist-my.sharepoint.com/personal/haeun5_office_kaist_ac_kr/Documents/석사논문/VRPT 공유 자료/실험결과파일 Raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forclass/Source/Masters/VR Karting/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_5CAA1194B81189A9286D813510C8614E125E34DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46681A33-F4E6-8849-8388-7D93A5306BE5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9F95BB-7819-6B45-AF72-7A37F730A82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="2340" windowWidth="16860" windowHeight="17440" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="760" windowWidth="16860" windowHeight="17440" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,20 @@
     <sheet name="MID" sheetId="9" r:id="rId9"/>
     <sheet name="Session 5" sheetId="10" r:id="rId10"/>
     <sheet name="Mini 5" sheetId="11" r:id="rId11"/>
-    <sheet name="Word Accuracies" sheetId="12" r:id="rId12"/>
-    <sheet name="Contrast Accuracies" sheetId="13" r:id="rId13"/>
-    <sheet name="Evaluation Word Accuracies" sheetId="14" r:id="rId14"/>
+    <sheet name="Session 6" sheetId="15" r:id="rId12"/>
+    <sheet name="Mini 6" sheetId="16" r:id="rId13"/>
+    <sheet name="Session 7" sheetId="17" r:id="rId14"/>
+    <sheet name="Mini 7" sheetId="18" r:id="rId15"/>
+    <sheet name="Word Accuracies" sheetId="12" r:id="rId16"/>
+    <sheet name="Contrast Accuracies" sheetId="13" r:id="rId17"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="14" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="87">
   <si>
     <t>bull</t>
   </si>
@@ -3259,6 +3263,2662 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5694E8E8-C4D0-1544-AB5B-75EE2EDF3052}">
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:C112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0.82896420000000004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2.4253770000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.098892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.286125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2.0640559999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.26709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2.3774030000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1.217735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2.6311339999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>3.0750120000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1.346954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.84106449999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1.6966859999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2.2774809999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0.94100950000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1.2203059999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2.4619599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1.4822390000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2.0182190000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2.1845249999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1.20285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2.1579130000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1.6974640000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1.280975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1.202118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1.7563169999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2.177673</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2.0917050000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1.146515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2.2590330000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0.97756960000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2.0973820000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0.80145259999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1.634674</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1.2041930000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1.6726989999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1.6477360000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1.1911620000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1.4586490000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1.7825009999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1.8206180000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1.5449520000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1.3675539999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>2.0298159999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1.0910949999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>3.4411010000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0.31985469999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0.80029300000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1.0538019999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1.0319210000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1.1832579999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1.554138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1.011047</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1.817993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>1.5173030000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0.80093380000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>2.5165389999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1.745018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>2.101696</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0.71790310000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>3.1844250000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>2.7540550000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>2.6761629999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>1.664955</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1.036087</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>1.981331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1.021736</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2.2163390000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1.801636</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1.511917</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1.9903489999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1.5395810000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1.484024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1.5886990000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>2.1507109999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>2.2927399999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>3.6485750000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1.4314579999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1.2402500000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1.937073</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>4.7395170000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>4.309158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>50</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>4.4262540000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1.6793819999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>0.86964419999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>2.3936000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1.3326260000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1.312408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1.1832579999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1.7283630000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>3.6859440000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1.545471</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>1.9172670000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1.2387999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1.302521</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1.6259459999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>2.9461360000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1.7826230000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1.8125309999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1.508942</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1.57724</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>3.3777159999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1.1146849999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0.81787109999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>0.68347170000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>0.76443479999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>2.0263059999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>2.7937319999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>0.13388059999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>47</v>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1.202332</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>0.24487300000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>2.668304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90DD972-5CC1-A04B-A4C7-2E7456D6BB70}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDABA28-E795-474D-8BE4-7030F29C5EB7}">
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1.2668109999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.042816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.2736590000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1.28867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.5879589999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.5551219999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2.4365999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1.659988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1.8927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2.8564530000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1.276184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1.429298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2.0716169999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3.720901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>2.189209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2.0379939999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1.5406340000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>3.537766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1.3166199999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1.6251530000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2.3640439999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2.3384860000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1.4338839999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.92312620000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.8601837</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1.669495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>2.3786930000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1.4475709999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0.82281490000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1.8885959999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1.7612460000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0.9714661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1.4217219999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1.268494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2.4032290000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0.89276120000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1.3635250000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2.1460270000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2.2238159999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1.5894779999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0.6525879</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1.1430659999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1.0378419999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>2.4070130000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>2.5320429999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>3.1217959999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1.773407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1.3955690000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0.94464110000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1.601593</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0.67660520000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>2.3951419999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>3.2356569999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0.96942139999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0.73037719999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1.3290709999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1.5124679999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>2.5122070000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>2.3366579999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>2.2870370000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>2.1426959999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>1.826851</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>3.4329909999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>4.696625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1.0296860000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1.6032789999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>2.2992859999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2.1423109999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1.4811479999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1.647797</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>2.597229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1.9600979999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1.540497</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>2.5899049999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1.027374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>2.4955750000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>4.3899540000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0.73887630000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0.98869320000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1.6685639999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>2.2652589999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1.0511470000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>2.1627350000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0.84582520000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1.476807</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>3.5407410000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1.240326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1.6334690000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1.372803</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1.6450499999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1.2739560000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0.95135499999999995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1.7102360000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>3.7928470000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1.462097</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1.2060550000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>1.7128909999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>2.9511720000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>2.7124329999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1.2968440000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>1.6262209999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1.30426</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1.2012940000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>47</v>
+      </c>
+      <c r="B104" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0.98547359999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1.912628</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1.0807500000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>4.7967219999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>2.0952449999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>1.6779790000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1.553741</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>1.039185</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>1.917969</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28217EC-7C94-A24E-ACA4-61AB969B0D44}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
@@ -4412,7 +7072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -4526,7 +7186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -4685,15 +7345,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -4703,8 +7363,11 @@
       <c r="C1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -4714,8 +7377,11 @@
       <c r="C2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -4725,8 +7391,11 @@
       <c r="C3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -4736,8 +7405,11 @@
       <c r="C4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -4747,8 +7419,11 @@
       <c r="C5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -4758,8 +7433,11 @@
       <c r="C6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -4769,8 +7447,11 @@
       <c r="C7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -4780,8 +7461,11 @@
       <c r="C8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -4791,8 +7475,11 @@
       <c r="C9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -4802,8 +7489,11 @@
       <c r="C10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -4813,8 +7503,11 @@
       <c r="C11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -4824,8 +7517,11 @@
       <c r="C12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -4835,8 +7531,11 @@
       <c r="C13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -4846,8 +7545,11 @@
       <c r="C14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -4857,8 +7559,11 @@
       <c r="C15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -4868,8 +7573,11 @@
       <c r="C16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -4879,8 +7587,11 @@
       <c r="C17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -4890,8 +7601,11 @@
       <c r="C18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -4901,8 +7615,11 @@
       <c r="C19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -4912,8 +7629,11 @@
       <c r="C20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -4923,8 +7643,11 @@
       <c r="C21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +7657,11 @@
       <c r="C22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -4945,8 +7671,11 @@
       <c r="C23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -4956,8 +7685,11 @@
       <c r="C24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -4967,8 +7699,11 @@
       <c r="C25" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -4978,8 +7713,11 @@
       <c r="C26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -4989,8 +7727,11 @@
       <c r="C27" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -5000,8 +7741,11 @@
       <c r="C28" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -5011,8 +7755,11 @@
       <c r="C29" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -5022,8 +7769,11 @@
       <c r="C30" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -5033,8 +7783,11 @@
       <c r="C31" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -5044,8 +7797,11 @@
       <c r="C32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -5055,8 +7811,11 @@
       <c r="C33" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -5066,8 +7825,11 @@
       <c r="C34" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -5077,8 +7839,11 @@
       <c r="C35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -5088,8 +7853,11 @@
       <c r="C36" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -5099,8 +7867,11 @@
       <c r="C37" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -5110,8 +7881,11 @@
       <c r="C38" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -5121,8 +7895,11 @@
       <c r="C39" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -5132,8 +7909,11 @@
       <c r="C40" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -5143,8 +7923,11 @@
       <c r="C41" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -5154,8 +7937,11 @@
       <c r="C42" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -5165,8 +7951,11 @@
       <c r="C43" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -5176,8 +7965,11 @@
       <c r="C44" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -5187,8 +7979,11 @@
       <c r="C45" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -5198,8 +7993,11 @@
       <c r="C46" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -5209,8 +8007,11 @@
       <c r="C47" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -5220,8 +8021,11 @@
       <c r="C48" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -5231,8 +8035,11 @@
       <c r="C49" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -5242,8 +8049,11 @@
       <c r="C50" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -5253,8 +8063,11 @@
       <c r="C51" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -5264,8 +8077,11 @@
       <c r="C52" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -5275,8 +8091,11 @@
       <c r="C53" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -5286,8 +8105,11 @@
       <c r="C54" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -5297,8 +8119,11 @@
       <c r="C55" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -5308,8 +8133,11 @@
       <c r="C56" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -5319,8 +8147,11 @@
       <c r="C57" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -5330,8 +8161,11 @@
       <c r="C58" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -5341,8 +8175,11 @@
       <c r="C59" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -5352,8 +8189,11 @@
       <c r="C60" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5363,8 +8203,11 @@
       <c r="C61" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -5374,8 +8217,11 @@
       <c r="C62" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -5385,8 +8231,11 @@
       <c r="C63" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -5396,8 +8245,11 @@
       <c r="C64" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -5407,8 +8259,11 @@
       <c r="C65" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -5418,8 +8273,11 @@
       <c r="C66" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5429,8 +8287,11 @@
       <c r="C67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -5440,8 +8301,11 @@
       <c r="C68" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -5451,8 +8315,11 @@
       <c r="C69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -5462,8 +8329,11 @@
       <c r="C70" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>64</v>
       </c>
@@ -5473,8 +8343,11 @@
       <c r="C71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -5484,8 +8357,11 @@
       <c r="C72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>62</v>
       </c>
@@ -5495,8 +8371,11 @@
       <c r="C73" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -5506,8 +8385,11 @@
       <c r="C74" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>67</v>
       </c>
@@ -5517,8 +8399,11 @@
       <c r="C75" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>56</v>
       </c>
@@ -5528,8 +8413,11 @@
       <c r="C76" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -5539,8 +8427,11 @@
       <c r="C77" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -5550,8 +8441,11 @@
       <c r="C78" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>61</v>
       </c>
@@ -5561,8 +8455,11 @@
       <c r="C79" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>62</v>
       </c>
@@ -5572,8 +8469,11 @@
       <c r="C80" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -5583,8 +8483,11 @@
       <c r="C81" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>63</v>
       </c>
@@ -5594,8 +8497,11 @@
       <c r="C82" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>58</v>
       </c>
@@ -5605,8 +8511,11 @@
       <c r="C83" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>63</v>
       </c>
@@ -5616,8 +8525,11 @@
       <c r="C84" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>67</v>
       </c>
@@ -5627,8 +8539,11 @@
       <c r="C85" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>65</v>
       </c>
@@ -5638,8 +8553,11 @@
       <c r="C86" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>60</v>
       </c>
@@ -5649,8 +8567,11 @@
       <c r="C87" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>68</v>
       </c>
@@ -5660,8 +8581,11 @@
       <c r="C88" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>56</v>
       </c>
@@ -5671,8 +8595,11 @@
       <c r="C89" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>65</v>
       </c>
@@ -5682,8 +8609,11 @@
       <c r="C90" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>68</v>
       </c>
@@ -5693,8 +8623,11 @@
       <c r="C91" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>59</v>
       </c>
@@ -5704,8 +8637,11 @@
       <c r="C92" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>58</v>
       </c>
@@ -5715,8 +8651,11 @@
       <c r="C93" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>64</v>
       </c>
@@ -5726,8 +8665,11 @@
       <c r="C94" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -5737,8 +8679,11 @@
       <c r="C95" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>61</v>
       </c>
@@ -5748,8 +8693,11 @@
       <c r="C96" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>61</v>
       </c>
@@ -5759,8 +8707,11 @@
       <c r="C97" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>67</v>
       </c>
@@ -5770,8 +8721,11 @@
       <c r="C98" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>60</v>
       </c>
@@ -5781,8 +8735,11 @@
       <c r="C99" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>63</v>
       </c>
@@ -5792,8 +8749,11 @@
       <c r="C100" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>61</v>
       </c>
@@ -5803,8 +8763,11 @@
       <c r="C101" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>63</v>
       </c>
@@ -5814,8 +8777,11 @@
       <c r="C102" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>66</v>
       </c>
@@ -5825,8 +8791,11 @@
       <c r="C103" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>68</v>
       </c>
@@ -5836,8 +8805,11 @@
       <c r="C104" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>62</v>
       </c>
@@ -5847,8 +8819,11 @@
       <c r="C105" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>59</v>
       </c>
@@ -5858,8 +8833,11 @@
       <c r="C106" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>64</v>
       </c>
@@ -5869,8 +8847,11 @@
       <c r="C107" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>60</v>
       </c>
@@ -5880,8 +8861,11 @@
       <c r="C108" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>64</v>
       </c>
@@ -5891,8 +8875,11 @@
       <c r="C109" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>67</v>
       </c>
@@ -5902,8 +8889,11 @@
       <c r="C110" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>58</v>
       </c>
@@ -5913,8 +8903,11 @@
       <c r="C111" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>58</v>
       </c>
@@ -5924,8 +8917,11 @@
       <c r="C112" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>56</v>
       </c>
@@ -5935,8 +8931,11 @@
       <c r="C113" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>59</v>
       </c>
@@ -5946,8 +8945,11 @@
       <c r="C114" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>56</v>
       </c>
@@ -5957,8 +8959,11 @@
       <c r="C115" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>62</v>
       </c>
@@ -5968,8 +8973,11 @@
       <c r="C116" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>65</v>
       </c>
@@ -5979,8 +8987,11 @@
       <c r="C117" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>66</v>
       </c>
@@ -5990,8 +9001,11 @@
       <c r="C118" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>65</v>
       </c>
@@ -6001,8 +9015,11 @@
       <c r="C119" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>68</v>
       </c>
@@ -6012,8 +9029,11 @@
       <c r="C120" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>64</v>
       </c>
@@ -6023,8 +9043,11 @@
       <c r="C121" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>60</v>
       </c>
@@ -6034,8 +9057,11 @@
       <c r="C122" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>61</v>
       </c>
@@ -6045,8 +9071,11 @@
       <c r="C123" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>63</v>
       </c>
@@ -6056,8 +9085,11 @@
       <c r="C124" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>61</v>
       </c>
@@ -6067,8 +9099,11 @@
       <c r="C125" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>66</v>
       </c>
@@ -6078,8 +9113,11 @@
       <c r="C126" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>67</v>
       </c>
@@ -6089,8 +9127,11 @@
       <c r="C127" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>62</v>
       </c>
@@ -6100,8 +9141,11 @@
       <c r="C128" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>63</v>
       </c>
@@ -6111,8 +9155,11 @@
       <c r="C129" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>60</v>
       </c>
@@ -6122,8 +9169,11 @@
       <c r="C130" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>64</v>
       </c>
@@ -6133,8 +9183,11 @@
       <c r="C131" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>58</v>
       </c>
@@ -6144,8 +9197,11 @@
       <c r="C132" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>62</v>
       </c>
@@ -6155,8 +9211,11 @@
       <c r="C133" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -6166,8 +9225,11 @@
       <c r="C134" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>68</v>
       </c>
@@ -6177,8 +9239,11 @@
       <c r="C135" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>67</v>
       </c>
@@ -6188,8 +9253,11 @@
       <c r="C136" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>56</v>
       </c>
@@ -6199,8 +9267,11 @@
       <c r="C137" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>68</v>
       </c>
@@ -6210,8 +9281,11 @@
       <c r="C138" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>56</v>
       </c>
@@ -6221,8 +9295,11 @@
       <c r="C139" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>66</v>
       </c>
@@ -6232,8 +9309,11 @@
       <c r="C140" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>59</v>
       </c>
@@ -6243,8 +9323,11 @@
       <c r="C141" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>65</v>
       </c>
@@ -6254,8 +9337,11 @@
       <c r="C142" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>65</v>
       </c>
@@ -6265,8 +9351,11 @@
       <c r="C143" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>58</v>
       </c>
@@ -6275,6 +9364,9 @@
       </c>
       <c r="C144" t="s">
         <v>70</v>
+      </c>
+      <c r="D144" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -10271,8 +13363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="F180" sqref="F180"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/VR Karting/Results/5887.xlsx
+++ b/VR Karting/Results/5887.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forclass/Source/Masters/VR Karting/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9F95BB-7819-6B45-AF72-7A37F730A82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BF359F-20AA-3D41-9F1E-8A699B7895DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="760" windowWidth="16860" windowHeight="17440" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="760" windowWidth="16860" windowHeight="17440" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" r:id="rId1"/>
@@ -28,16 +28,19 @@
     <sheet name="Mini 6" sheetId="16" r:id="rId13"/>
     <sheet name="Session 7" sheetId="17" r:id="rId14"/>
     <sheet name="Mini 7" sheetId="18" r:id="rId15"/>
-    <sheet name="Word Accuracies" sheetId="12" r:id="rId16"/>
-    <sheet name="Contrast Accuracies" sheetId="13" r:id="rId17"/>
-    <sheet name="Evaluation Word Accuracies" sheetId="14" r:id="rId18"/>
+    <sheet name="Session 8" sheetId="19" r:id="rId16"/>
+    <sheet name="Mini 8" sheetId="20" r:id="rId17"/>
+    <sheet name="POST" sheetId="21" r:id="rId18"/>
+    <sheet name="Word Accuracies" sheetId="12" r:id="rId19"/>
+    <sheet name="Contrast Accuracies" sheetId="13" r:id="rId20"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="14" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="87">
   <si>
     <t>bull</t>
   </si>
@@ -4594,7 +4597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDABA28-E795-474D-8BE4-7030F29C5EB7}">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
@@ -5919,6 +5922,3366 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9295EF2A-8D99-3746-9A6F-85763B72F38C}">
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1.0247230000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1.7581310000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.90771869999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.58815379999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.85694890000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2.0583649999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1.8232649999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.96639249999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.38069920000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2.6720350000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1.679054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1.0461199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.71900940000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.79617309999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.55156709999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.84727479999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1.1599269999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2.1081850000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1.346298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1.0512699999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1.336533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1.414658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0.7492065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.71649169999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.55184940000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1.5553440000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1.0979920000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0.6793671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1.8493040000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.90016169999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>2.3380740000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>3.5492710000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>-5.2429200000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0.93862920000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>2.7592159999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>2.5286559999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>3.6961360000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2.922577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0.82373050000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2.5306090000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0.97573849999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0.85653690000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0.54251099999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1.338104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1.5090939999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1.828857</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1.9407650000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1.289825</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1.282227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>2.2897639999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2.0752259999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1.618347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1.6823729999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0.81405640000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>1.235168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0.52099609999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>2.0083709999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1.023045</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>2.2828029999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1.9410780000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>1.2609980000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>1.9599530000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1.2134860000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1.4799880000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>2.361504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>1.490807</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1.756599</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2.4960170000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1.6592100000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1.2055659999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1.462761</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>4.0394209999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>5.0388489999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1.6095889999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1.8506929999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>3.0030519999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>2.1743769999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1.185532</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>2.8020019999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>1.7394099999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1.872482</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>2.9404910000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>0.8770905</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>2.483276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>0.81465149999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1.293304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1.392822</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>2.5252530000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1.644379</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1.444733</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1.8734440000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>0.82882690000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1.5101009999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1.9482729999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1.4829410000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1.594238</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>2.29068</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>2.0150760000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>2.3701479999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1.9358519999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1.460968</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1.059509</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>1.549866</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1.610779</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1.0541990000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1.7792049999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>42</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1.0355220000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1.0226440000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>36</v>
+      </c>
+      <c r="B109" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>1.423279</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1.354095</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>2.9124150000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>3.8895569999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E682793B-BAE1-C54C-9699-5192B433BF16}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8427968-4C9B-1640-89C5-5E354231F9D0}">
+  <dimension ref="A1:D144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>61</v>
+      </c>
+      <c r="B85" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>69</v>
+      </c>
+      <c r="D91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>69</v>
+      </c>
+      <c r="D93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>67</v>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>69</v>
+      </c>
+      <c r="D95" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>57</v>
+      </c>
+      <c r="D101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>56</v>
+      </c>
+      <c r="B103" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>57</v>
+      </c>
+      <c r="D103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>63</v>
+      </c>
+      <c r="B104" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>57</v>
+      </c>
+      <c r="D107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>60</v>
+      </c>
+      <c r="B108" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>59</v>
+      </c>
+      <c r="B109" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>57</v>
+      </c>
+      <c r="D109" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>68</v>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>57</v>
+      </c>
+      <c r="D110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>60</v>
+      </c>
+      <c r="B111" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>67</v>
+      </c>
+      <c r="B112" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>57</v>
+      </c>
+      <c r="D112" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>61</v>
+      </c>
+      <c r="B113" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>57</v>
+      </c>
+      <c r="D113" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>61</v>
+      </c>
+      <c r="B114" t="b">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>57</v>
+      </c>
+      <c r="D114" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>67</v>
+      </c>
+      <c r="B115" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>57</v>
+      </c>
+      <c r="D115" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>64</v>
+      </c>
+      <c r="B116" t="b">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>57</v>
+      </c>
+      <c r="D116" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>62</v>
+      </c>
+      <c r="B117" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>57</v>
+      </c>
+      <c r="D117" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>57</v>
+      </c>
+      <c r="D118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>58</v>
+      </c>
+      <c r="B119" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>57</v>
+      </c>
+      <c r="D119" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>59</v>
+      </c>
+      <c r="B120" t="b">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>61</v>
+      </c>
+      <c r="B121" t="b">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>70</v>
+      </c>
+      <c r="D121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>65</v>
+      </c>
+      <c r="B122" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>58</v>
+      </c>
+      <c r="B123" t="b">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>59</v>
+      </c>
+      <c r="B124" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>70</v>
+      </c>
+      <c r="D124" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>65</v>
+      </c>
+      <c r="B125" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>70</v>
+      </c>
+      <c r="D125" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>63</v>
+      </c>
+      <c r="B126" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>70</v>
+      </c>
+      <c r="D126" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>68</v>
+      </c>
+      <c r="B127" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>70</v>
+      </c>
+      <c r="D127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>67</v>
+      </c>
+      <c r="B128" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>70</v>
+      </c>
+      <c r="D128" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>64</v>
+      </c>
+      <c r="B129" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>70</v>
+      </c>
+      <c r="D129" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>64</v>
+      </c>
+      <c r="B130" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>70</v>
+      </c>
+      <c r="D130" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>67</v>
+      </c>
+      <c r="B131" t="b">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>70</v>
+      </c>
+      <c r="D131" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>68</v>
+      </c>
+      <c r="B132" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D132" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>66</v>
+      </c>
+      <c r="B133" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>70</v>
+      </c>
+      <c r="D133" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>66</v>
+      </c>
+      <c r="B134" t="b">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>70</v>
+      </c>
+      <c r="D134" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>56</v>
+      </c>
+      <c r="B135" t="b">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>70</v>
+      </c>
+      <c r="D135" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>56</v>
+      </c>
+      <c r="B136" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>70</v>
+      </c>
+      <c r="D136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>60</v>
+      </c>
+      <c r="B137" t="b">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>70</v>
+      </c>
+      <c r="D137" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B138" t="b">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>70</v>
+      </c>
+      <c r="D138" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>62</v>
+      </c>
+      <c r="B139" t="b">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>70</v>
+      </c>
+      <c r="D139" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>63</v>
+      </c>
+      <c r="B140" t="b">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>70</v>
+      </c>
+      <c r="D140" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>59</v>
+      </c>
+      <c r="B141" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>70</v>
+      </c>
+      <c r="D141" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>70</v>
+      </c>
+      <c r="D142" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>60</v>
+      </c>
+      <c r="B143" t="b">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>70</v>
+      </c>
+      <c r="D143" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>62</v>
+      </c>
+      <c r="B144" t="b">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
@@ -7064,277 +10427,6 @@
       </c>
       <c r="F57">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="C2">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="D2">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E2">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="F2">
-        <v>0.6071428571428571</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="C3">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="D3">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="E3">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="F3">
-        <v>0.9285714285714286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="C4">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D4">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="E4">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="F4">
-        <v>0.9285714285714286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="C5">
-        <v>0.75</v>
-      </c>
-      <c r="D5">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="E5">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="F5">
-        <v>0.8214285714285714</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2">
-        <v>0.5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C5">
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C8">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C9">
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C10">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11">
-        <v>0.5</v>
-      </c>
-      <c r="C11">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13">
-        <v>0.5</v>
-      </c>
-      <c r="C13">
-        <v>0.58333333333333337</v>
       </c>
     </row>
   </sheetData>
@@ -9375,6 +12467,277 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="C2">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="D2">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E2">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="F2">
+        <v>0.6071428571428571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="C3">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="D3">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="E3">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="F3">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="C4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D4">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="E4">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="F4">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C5">
+        <v>0.75</v>
+      </c>
+      <c r="D5">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="E5">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="F5">
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C5">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C8">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C9">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C112"/>
